--- a/Internet Mobile Phone TV.xlsx
+++ b/Internet Mobile Phone TV.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Current (Rogers)" sheetId="1" r:id="rId1"/>
-    <sheet name="Cancel TV (Rogers)" sheetId="5" r:id="rId2"/>
-    <sheet name="Revised Plans (Rogers)" sheetId="3" r:id="rId3"/>
-    <sheet name="BestBuy iPhone 6 (Rogers)" sheetId="4" r:id="rId4"/>
+    <sheet name="Current Plans; With Discounts" sheetId="1" r:id="rId1"/>
+    <sheet name="Current Plans; Cancel TV" sheetId="5" r:id="rId2"/>
+    <sheet name="Revised Plans" sheetId="3" r:id="rId3"/>
+    <sheet name="New Phone; Current Plans" sheetId="6" r:id="rId4"/>
+    <sheet name="New Phone; Revised Plans" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
   <si>
     <t>Item</t>
   </si>
@@ -77,15 +78,6 @@
     <t>Value Plan Classic</t>
   </si>
   <si>
-    <t>9-1-1 Emergency Access Fee</t>
-  </si>
-  <si>
-    <t>SystemAccessFee(NonGovernment)</t>
-  </si>
-  <si>
-    <t>Message Relay (TTY)</t>
-  </si>
-  <si>
     <t>Phone Total</t>
   </si>
   <si>
@@ -126,6 +118,15 @@
   </si>
   <si>
     <t>Additional Line - No Tab</t>
+  </si>
+  <si>
+    <t>100 Gbps, 320 GB</t>
+  </si>
+  <si>
+    <t>Unlimited local calling, 2 features (call display, voicemail), 500 LD minutes</t>
+  </si>
+  <si>
+    <t>911; System Access; TTY</t>
   </si>
 </sst>
 </file>
@@ -533,11 +534,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -769,10 +768,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B12" s="12">
-        <v>0.22</v>
+        <f>0.22+5.95+0.19</f>
+        <v>6.36</v>
       </c>
       <c r="C12" s="13">
         <v>0</v>
@@ -783,95 +783,49 @@
       </c>
       <c r="E12" s="12">
         <f>(B12-D12)*0.13</f>
-        <v>2.86E-2</v>
+        <v>0.82680000000000009</v>
       </c>
       <c r="F12" s="2">
         <f>B12-D12+E12</f>
-        <v>0.24859999999999999</v>
+        <v>7.1868000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27">
+        <f>SUM(F11:F12)</f>
+        <v>43.301600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <f>SUM(F7,F10,F13)</f>
+        <v>137.74248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12">
-        <v>5.95</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <f>(B13-D13)*0.13</f>
-        <v>0.77350000000000008</v>
-      </c>
-      <c r="F13" s="2">
-        <f>B13-D13+E13</f>
-        <v>6.7235000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <f>(B14-D14)*0.13</f>
-        <v>2.47E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <f>B14-D14+E14</f>
-        <v>0.2147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
-        <f>SUM(F11:F14)</f>
-        <v>43.301600000000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <f>SUM(F7,F10,F15)</f>
-        <v>137.74248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <f>SUM(F7,F4,F10,F15)</f>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f>SUM(F7,F4,F10,F13)</f>
         <v>237.18248000000003</v>
       </c>
     </row>
@@ -882,11 +836,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1059,10 +1011,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B9" s="12">
-        <v>0.22</v>
+        <f>0.22+5.95+0.19</f>
+        <v>6.36</v>
       </c>
       <c r="C9" s="13">
         <v>0</v>
@@ -1073,96 +1026,50 @@
       </c>
       <c r="E9" s="12">
         <f>(B9-D9)*0.13</f>
-        <v>2.86E-2</v>
+        <v>0.82680000000000009</v>
       </c>
       <c r="F9" s="2">
         <f>B9-D9+E9</f>
-        <v>0.24859999999999999</v>
+        <v>7.1868000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27">
+        <f>SUM(F8:F9)</f>
+        <v>52.330300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUM(F7,F10)</f>
+        <v>140.459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12">
-        <v>5.95</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <f>B10*C10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <f>(B10-D10)*0.13</f>
-        <v>0.77350000000000008</v>
-      </c>
-      <c r="F10" s="2">
-        <f>B10-D10+E10</f>
-        <v>6.7235000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f>B11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <f>(B11-D11)*0.13</f>
-        <v>2.47E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <f>B11-D11+E11</f>
-        <v>0.2147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
-        <f>SUM(F8:F11)</f>
-        <v>52.330300000000008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <f>SUM(F7,F12)</f>
-        <v>140.459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <f>SUM(F7,F4,F12)</f>
-        <v>239.89900000000006</v>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <f>SUM(F7,F4,F10)</f>
+        <v>239.89900000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1174,9 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1208,7 +1113,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12">
         <v>100</v>
@@ -1229,12 +1134,12 @@
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12">
         <v>45</v>
@@ -1270,7 +1175,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12">
         <v>64.989999999999995</v>
@@ -1291,7 +1196,7 @@
         <v>73.438699999999997</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,7 +1214,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="12">
         <v>47.91</v>
@@ -1330,12 +1235,12 @@
         <v>54.138299999999994</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -1358,7 +1263,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="30"/>
@@ -1371,7 +1276,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="16"/>
@@ -1384,7 +1289,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -1402,11 +1307,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1438,7 +1341,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="12">
         <v>115</v>
@@ -1459,12 +1362,12 @@
         <v>129.94999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="12">
         <v>55</v>
@@ -1500,7 +1403,259 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>63.99</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <f>B5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(B5-D5)*0.13</f>
+        <v>8.3186999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <f>B5-D5+E5</f>
+        <v>72.308700000000002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <f>B6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(B6-D6)*0.13</f>
+        <v>1.82</v>
+      </c>
+      <c r="F6" s="2">
+        <f>B6-D6+E6</f>
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
+        <f>SUM(F5:F6)</f>
+        <v>88.128700000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <f>B8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(B8-D8)*0.13</f>
+        <v>5.1935000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <f>B8-D8+E8</f>
+        <v>45.143500000000003</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12">
+        <f>0.22+5.95+0.19</f>
+        <v>6.36</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <f>B9*C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <f>(B9-D9)*0.13</f>
+        <v>0.82680000000000009</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B9-D9+E9</f>
+        <v>7.1868000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27">
+        <f>SUM(F8:F9)</f>
+        <v>52.330300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUM(F7,F10)</f>
+        <v>140.459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <f>SUM(F7,F4,F10)</f>
+        <v>332.55900000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12">
+        <v>115</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(B2-D2)*0.13</f>
+        <v>14.950000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2-D2+E2</f>
+        <v>129.94999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(B3-D3)*0.13</f>
+        <v>7.15</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3-D3+E3</f>
+        <v>62.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
+        <f>SUM(F2:F3)</f>
+        <v>192.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="12">
         <v>64.989999999999995</v>
@@ -1521,7 +1676,7 @@
         <v>73.438699999999997</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,7 +1694,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="12">
         <v>47.91</v>
@@ -1560,12 +1715,12 @@
         <v>54.138299999999994</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -1588,7 +1743,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="30"/>
@@ -1601,7 +1756,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="16"/>
@@ -1614,7 +1769,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>

--- a/Internet Mobile Phone TV.xlsx
+++ b/Internet Mobile Phone TV.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" tabRatio="786"/>
   </bookViews>
   <sheets>
     <sheet name="Current Plans; With Discounts" sheetId="1" r:id="rId1"/>
-    <sheet name="Current Plans; Cancel TV" sheetId="5" r:id="rId2"/>
-    <sheet name="Revised Plans" sheetId="3" r:id="rId3"/>
-    <sheet name="New Phone; Current Plans" sheetId="6" r:id="rId4"/>
-    <sheet name="New Phone; Revised Plans" sheetId="4" r:id="rId5"/>
+    <sheet name="Current Plans; No Discount" sheetId="7" r:id="rId2"/>
+    <sheet name="Current Plans; Cancel TV" sheetId="5" r:id="rId3"/>
+    <sheet name="Rogers Customer Service" sheetId="8" r:id="rId4"/>
+    <sheet name="Revised Plans; Current Phones" sheetId="3" r:id="rId5"/>
+    <sheet name="Current Plans; New Phone" sheetId="6" r:id="rId6"/>
+    <sheet name="Revised Plans; New Phone" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>Item</t>
   </si>
@@ -127,6 +129,48 @@
   </si>
   <si>
     <t>911; System Access; TTY</t>
+  </si>
+  <si>
+    <t>Additional Voice - Premium</t>
+  </si>
+  <si>
+    <t>Primary Voice - Premium</t>
+  </si>
+  <si>
+    <t>7 GB Shared Data</t>
+  </si>
+  <si>
+    <t>Unlimited Canada-wide calling, unlimited messaging, call display, voicemail</t>
+  </si>
+  <si>
+    <t>Rogers Ignite 100u</t>
+  </si>
+  <si>
+    <t>Nextbox 3.0 PVR</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Kids Entertainment</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Unlimited Canada-wide calling, 3 features</t>
+  </si>
+  <si>
+    <t>7 GB shared data, unlimited Canada-wide calling, unlimited messaging, $10 off for first year only</t>
+  </si>
+  <si>
+    <t>Unk</t>
+  </si>
+  <si>
+    <t>Quoted by Rogers agent</t>
+  </si>
+  <si>
+    <t>4 outlets</t>
   </si>
 </sst>
 </file>
@@ -536,7 +580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -836,9 +882,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12">
+        <v>65</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D2" s="12">
+        <f>B2*C2</f>
+        <v>7.8</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(B2-D2)*0.13</f>
+        <v>7.4360000000000008</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2-D2+E2</f>
+        <v>64.63600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="12">
+        <f>B3*C3</f>
+        <v>4.2</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(B3-D3)*0.13</f>
+        <v>4.0040000000000004</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3-D3+E3</f>
+        <v>34.804000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
+        <f>SUM(F2:F3)</f>
+        <v>99.440000000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>63.99</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="12">
+        <f>B5*C5</f>
+        <v>7.6787999999999998</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(B5-D5)*0.13</f>
+        <v>7.3204560000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <f>B5-D5+E5</f>
+        <v>63.631656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <f>B6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(B6-D6)*0.13</f>
+        <v>1.82</v>
+      </c>
+      <c r="F6" s="2">
+        <f>B6-D6+E6</f>
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
+        <f>SUM(F5:F6)</f>
+        <v>79.451656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12">
+        <v>37.49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="12">
+        <f>B8*C8</f>
+        <v>4.4988000000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(B8-D8)*0.13</f>
+        <v>4.288856</v>
+      </c>
+      <c r="F8" s="2">
+        <f>B8-D8+E8</f>
+        <v>37.280056000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2.99</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <f>B9*C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <f>(B9-D9)*0.13</f>
+        <v>0.38870000000000005</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B9-D9+E9</f>
+        <v>3.3787000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <f>SUM(F8:F9)</f>
+        <v>40.658756000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="12">
+        <f>B11*C11</f>
+        <v>4.7940000000000005</v>
+      </c>
+      <c r="E11" s="12">
+        <f>(B11-D11)*0.13</f>
+        <v>4.5702800000000012</v>
+      </c>
+      <c r="F11" s="2">
+        <f>B11-D11+E11</f>
+        <v>39.72628000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12">
+        <f>0.22+5.95+0.19</f>
+        <v>6.36</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <f>(B12-D12)*0.13</f>
+        <v>0.82680000000000009</v>
+      </c>
+      <c r="F12" s="2">
+        <f>B12-D12+E12</f>
+        <v>7.1868000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27">
+        <f>SUM(F11:F12)</f>
+        <v>46.913080000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <f>SUM(F7,F10,F13)</f>
+        <v>167.023492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f>SUM(F7,F4,F10,F13)</f>
+        <v>266.46349200000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -876,19 +1228,19 @@
         <v>65</v>
       </c>
       <c r="C2" s="13">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="D2" s="12">
         <f>B2*C2</f>
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="E2" s="12">
         <f>(B2-D2)*0.13</f>
-        <v>7.4360000000000008</v>
+        <v>7.774</v>
       </c>
       <c r="F2" s="2">
         <f>B2-D2+E2</f>
-        <v>64.63600000000001</v>
+        <v>67.573999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,19 +1251,19 @@
         <v>35</v>
       </c>
       <c r="C3" s="13">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="D3" s="12">
         <f>B3*C3</f>
-        <v>4.2</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="E3" s="12">
         <f>(B3-D3)*0.13</f>
-        <v>4.0040000000000004</v>
+        <v>4.1860000000000008</v>
       </c>
       <c r="F3" s="2">
         <f>B3-D3+E3</f>
-        <v>34.804000000000002</v>
+        <v>36.386000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,7 +1276,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25">
         <f>SUM(F2:F3)</f>
-        <v>99.440000000000012</v>
+        <v>103.96000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,19 +1287,19 @@
         <v>63.99</v>
       </c>
       <c r="C5" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="12">
         <f>B5*C5</f>
-        <v>0</v>
+        <v>5.1192000000000002</v>
       </c>
       <c r="E5" s="12">
         <f>(B5-D5)*0.13</f>
-        <v>8.3186999999999998</v>
+        <v>7.6532040000000006</v>
       </c>
       <c r="F5" s="2">
         <f>B5-D5+E5</f>
-        <v>72.308700000000002</v>
+        <v>66.524004000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,7 +1335,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26">
         <f>SUM(F5:F6)</f>
-        <v>88.128700000000009</v>
+        <v>82.344004000000012</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,19 +1346,19 @@
         <v>39.950000000000003</v>
       </c>
       <c r="C8" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D8" s="12">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>3.1960000000000002</v>
       </c>
       <c r="E8" s="12">
         <f>(B8-D8)*0.13</f>
-        <v>5.1935000000000002</v>
+        <v>4.7780200000000006</v>
       </c>
       <c r="F8" s="2">
         <f>B8-D8+E8</f>
-        <v>45.143500000000003</v>
+        <v>41.532020000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,12 +1395,12 @@
       <c r="E10" s="27"/>
       <c r="F10" s="27">
         <f>SUM(F8:F9)</f>
-        <v>52.330300000000001</v>
+        <v>48.718820000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -1056,7 +1408,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <f>SUM(F7,F10)</f>
-        <v>140.459</v>
+        <v>131.06282400000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,7 +1421,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8">
         <f>SUM(F7,F4,F10)</f>
-        <v>239.89900000000003</v>
+        <v>235.02282400000001</v>
       </c>
     </row>
   </sheetData>
@@ -1077,11 +1429,247 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12">
+        <v>110</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D2" s="12">
+        <f>B2*C2</f>
+        <v>13.2</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(B2-D2)*0.13</f>
+        <v>12.584</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2-D2+E2</f>
+        <v>109.384</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="12">
+        <f>B3*C3</f>
+        <v>6.6</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(B3-D3)*0.13</f>
+        <v>6.2919999999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3-D3+E3</f>
+        <v>54.692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
+        <f>SUM(F2:F3)</f>
+        <v>164.07599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26">
+        <f>SUM(F5:F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12">
+        <v>49.99</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12">
+        <v>24.95</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <f>SUM(F7:F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27">
+        <f>SUM(F11:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>146.87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <f>F13+F4</f>
+        <v>310.94600000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1119,19 +1707,19 @@
         <v>100</v>
       </c>
       <c r="C2" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D2" s="12">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="12">
         <f>(B2-D2)*0.13</f>
-        <v>13</v>
+        <v>11.96</v>
       </c>
       <c r="F2" s="2">
         <f>B2-D2+E2</f>
-        <v>113</v>
+        <v>103.96000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -1145,19 +1733,19 @@
         <v>45</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D3" s="12">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E3" s="12">
         <f>(B3-D3)*0.13</f>
-        <v>5.8500000000000005</v>
+        <v>5.3819999999999997</v>
       </c>
       <c r="F3" s="2">
         <f>B3-D3+E3</f>
-        <v>50.85</v>
+        <v>46.781999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,30 +1758,30 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25">
         <f>SUM(F2:F3)</f>
-        <v>163.85</v>
+        <v>150.74200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12">
         <v>64.989999999999995</v>
       </c>
       <c r="C5" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="12">
         <f>B5*C5</f>
-        <v>0</v>
+        <v>5.1991999999999994</v>
       </c>
       <c r="E5" s="12">
         <f>(B5-D5)*0.13</f>
-        <v>8.4486999999999988</v>
+        <v>7.7728039999999998</v>
       </c>
       <c r="F5" s="2">
         <f>B5-D5+E5</f>
-        <v>73.438699999999997</v>
+        <v>67.563603999999998</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1209,7 +1797,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26">
         <f>SUM(F5:F5)</f>
-        <v>73.438699999999997</v>
+        <v>67.563603999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,19 +1808,19 @@
         <v>47.91</v>
       </c>
       <c r="C7" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D7" s="12">
         <f>B7*C7</f>
-        <v>0</v>
+        <v>3.8327999999999998</v>
       </c>
       <c r="E7" s="12">
         <f>(B7-D7)*0.13</f>
-        <v>6.2282999999999999</v>
+        <v>5.7300360000000001</v>
       </c>
       <c r="F7" s="2">
         <f>B7-D7+E7</f>
-        <v>54.138299999999994</v>
+        <v>49.807235999999996</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1271,7 +1859,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27">
         <f>SUM(F7:F8)</f>
-        <v>59.788299999999992</v>
+        <v>55.457235999999995</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,7 +1872,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4">
         <f>SUM(F6,F9)</f>
-        <v>133.22699999999998</v>
+        <v>123.02083999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,7 +1885,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <f>SUM(F6,F4,F9)</f>
-        <v>297.077</v>
+        <v>273.76283999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1893,284 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="D2" s="12">
+        <f>B2*C2</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(B2-D2)*0.13</f>
+        <v>5.98</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2-D2+E2</f>
+        <v>51.980000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12">
+        <v>65</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="12">
+        <f>B3*C3</f>
+        <v>5.2</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(B3-D3)*0.13</f>
+        <v>7.774</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3-D3+E3</f>
+        <v>67.573999999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="12">
+        <f>B4*C4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E4" s="12">
+        <f>(B4-D4)*0.13</f>
+        <v>6.5780000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <f>B4-D4+E4</f>
+        <v>57.178000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25">
+        <f>SUM(F2:F4)</f>
+        <v>176.732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>63.99</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="12">
+        <f>B6*C6</f>
+        <v>5.1192000000000002</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(B6-D6)*0.13</f>
+        <v>7.6532040000000006</v>
+      </c>
+      <c r="F6" s="2">
+        <f>B6-D6+E6</f>
+        <v>66.524004000000005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <f>B7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f>(B7-D7)*0.13</f>
+        <v>1.82</v>
+      </c>
+      <c r="F7" s="2">
+        <f>B7-D7+E7</f>
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26">
+        <f>SUM(F6:F7)</f>
+        <v>82.344004000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="12">
+        <f>B9*C9</f>
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="E9" s="12">
+        <f>(B9-D9)*0.13</f>
+        <v>4.7780200000000006</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B9-D9+E9</f>
+        <v>41.532020000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12">
+        <f>0.22+5.95+0.19</f>
+        <v>6.36</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <f>B10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <f>(B10-D10)*0.13</f>
+        <v>0.82680000000000009</v>
+      </c>
+      <c r="F10" s="2">
+        <f>B10-D10+E10</f>
+        <v>7.1868000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27">
+        <f>SUM(F9:F10)</f>
+        <v>48.718820000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f>SUM(F8,F11)</f>
+        <v>131.06282400000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <f>SUM(F8,F5,F11)</f>
+        <v>307.79482400000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -1341,113 +2206,113 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="12">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C2" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D2" s="12">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" s="12">
         <f>(B2-D2)*0.13</f>
-        <v>14.950000000000001</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="2">
         <f>B2-D2+E2</f>
-        <v>129.94999999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+        <v>51.980000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D3" s="12">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E3" s="12">
         <f>(B3-D3)*0.13</f>
-        <v>7.15</v>
+        <v>7.774</v>
       </c>
       <c r="F3" s="2">
         <f>B3-D3+E3</f>
-        <v>62.15</v>
+        <v>67.573999999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="12">
+        <f>B4*C4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E4" s="12">
+        <f>(B4-D4)*0.13</f>
+        <v>6.5780000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <f>B4-D4+E4</f>
+        <v>57.178000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
-        <f>SUM(F2:F3)</f>
-        <v>192.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12">
-        <v>63.99</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <f>B5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <f>(B5-D5)*0.13</f>
-        <v>8.3186999999999998</v>
-      </c>
-      <c r="F5" s="2">
-        <f>B5-D5+E5</f>
-        <v>72.308700000000002</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+      <c r="B5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25">
+        <f>SUM(F2:F4)</f>
+        <v>176.732</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12">
-        <v>14</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="C6" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D6" s="12">
         <f>B6*C6</f>
-        <v>0</v>
+        <v>5.1991999999999994</v>
       </c>
       <c r="E6" s="12">
         <f>(B6-D6)*0.13</f>
-        <v>1.82</v>
+        <v>7.7728039999999998</v>
       </c>
       <c r="F6" s="2">
         <f>B6-D6+E6</f>
-        <v>15.82</v>
+        <v>67.563603999999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,43 +2324,42 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26">
-        <f>SUM(F5:F6)</f>
-        <v>88.128700000000009</v>
+        <f>SUM(F6:F6)</f>
+        <v>67.563603999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="12">
-        <v>39.950000000000003</v>
+        <v>47.91</v>
       </c>
       <c r="C8" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D8" s="12">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>3.8327999999999998</v>
       </c>
       <c r="E8" s="12">
         <f>(B8-D8)*0.13</f>
-        <v>5.1935000000000002</v>
+        <v>5.7300360000000001</v>
       </c>
       <c r="F8" s="2">
         <f>B8-D8+E8</f>
-        <v>45.143500000000003</v>
+        <v>49.807235999999996</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B9" s="12">
-        <f>0.22+5.95+0.19</f>
-        <v>6.36</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13">
         <v>0</v>
@@ -1506,11 +2370,11 @@
       </c>
       <c r="E9" s="12">
         <f>(B9-D9)*0.13</f>
-        <v>0.82680000000000009</v>
+        <v>0.65</v>
       </c>
       <c r="F9" s="2">
         <f>B9-D9+E9</f>
-        <v>7.1868000000000007</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1523,12 +2387,12 @@
       <c r="E10" s="27"/>
       <c r="F10" s="27">
         <f>SUM(F8:F9)</f>
-        <v>52.330300000000001</v>
+        <v>55.457235999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -1536,7 +2400,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <f>SUM(F7,F10)</f>
-        <v>140.459</v>
+        <v>123.02083999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,236 +2412,8 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
-        <f>SUM(F7,F4,F10)</f>
-        <v>332.55900000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="6" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="12">
-        <v>115</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <f>(B2-D2)*0.13</f>
-        <v>14.950000000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <f>B2-D2+E2</f>
-        <v>129.94999999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="12">
-        <v>55</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <f>B3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <f>(B3-D3)*0.13</f>
-        <v>7.15</v>
-      </c>
-      <c r="F3" s="2">
-        <f>B3-D3+E3</f>
-        <v>62.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
-        <f>SUM(F2:F3)</f>
-        <v>192.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <f>B5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <f>(B5-D5)*0.13</f>
-        <v>8.4486999999999988</v>
-      </c>
-      <c r="F5" s="2">
-        <f>B5-D5+E5</f>
-        <v>73.438699999999997</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26">
-        <f>SUM(F5:F5)</f>
-        <v>73.438699999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12">
-        <v>47.91</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <f>B7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <f>(B7-D7)*0.13</f>
-        <v>6.2282999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <f>B7-D7+E7</f>
-        <v>54.138299999999994</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <f>B8*C8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <f>(B8-D8)*0.13</f>
-        <v>0.65</v>
-      </c>
-      <c r="F8" s="2">
-        <f>B8-D8+E8</f>
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
-        <f>SUM(F7:F8)</f>
-        <v>59.788299999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <f>SUM(F6,F9)</f>
-        <v>133.22699999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <f>SUM(F6,F4,F9)</f>
-        <v>325.327</v>
+        <f>SUM(F7,F5,F10)</f>
+        <v>299.75283999999999</v>
       </c>
     </row>
   </sheetData>
